--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3422.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3422.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.099259160066737</v>
+        <v>1.381182789802551</v>
       </c>
       <c r="B1">
-        <v>1.64259799285977</v>
+        <v>2.56744909286499</v>
       </c>
       <c r="C1">
-        <v>3.51482417508261</v>
+        <v>6.541423797607422</v>
       </c>
       <c r="D1">
-        <v>4.987705756267421</v>
+        <v>2.403305768966675</v>
       </c>
       <c r="E1">
-        <v>1.501373342514903</v>
+        <v>1.214823246002197</v>
       </c>
     </row>
   </sheetData>
